--- a/资产负债表/300917.xlsx
+++ b/资产负债表/300917.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>550799516.5599999</v>
+        <v>365659823.42</v>
       </c>
       <c r="P2" t="n">
-        <v>7562468.16</v>
+        <v>7852453.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>202844124.41</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>118238393</v>
+      </c>
+      <c r="R2" t="n">
+        <v>41.0652993612</v>
+      </c>
       <c r="S2" t="n">
-        <v>247143610.93</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>151688292.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>41.647920473</v>
+      </c>
       <c r="U2" t="n">
-        <v>2713684.86</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>2323863.35</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.4618059942</v>
+      </c>
       <c r="W2" t="n">
-        <v>235709914.77</v>
+        <v>174759485.82</v>
       </c>
       <c r="X2" t="n">
-        <v>60553904.24</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>46490259.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>57.4163296134</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6525680.49</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>447.5476626407</v>
+      </c>
       <c r="AB2" t="n">
-        <v>315089601.79</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>190900337.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>46.4021093763</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29.4168838144</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14.8602879931</v>
+      </c>
       <c r="AF2" t="n">
-        <v>206.3139881775</v>
+        <v>168.8469555963</v>
       </c>
       <c r="AG2" t="n">
-        <v>42.7941397338</v>
+        <v>47.7929142408</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300917.xlsx
+++ b/资产负债表/300917.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>365659823.42</v>
+        <v>550799516.5599999</v>
       </c>
       <c r="P2" t="n">
-        <v>7852453.7</v>
+        <v>7562468.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>118238393</v>
-      </c>
-      <c r="R2" t="n">
-        <v>41.0652993612</v>
-      </c>
+        <v>202844124.41</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>151688292.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>41.647920473</v>
-      </c>
+        <v>247143610.93</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>2323863.35</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.4618059942</v>
-      </c>
+        <v>2713684.86</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>174759485.82</v>
+        <v>235709914.77</v>
       </c>
       <c r="X2" t="n">
-        <v>46490259.4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>57.4163296134</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>6525680.49</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>447.5476626407</v>
-      </c>
+        <v>60553904.24</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>190900337.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>46.4021093763</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>29.4168838144</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>14.8602879931</v>
-      </c>
+        <v>315089601.79</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>168.8469555963</v>
+        <v>206.3139881775</v>
       </c>
       <c r="AG2" t="n">
-        <v>47.7929142408</v>
+        <v>42.7941397338</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300917.xlsx
+++ b/资产负债表/300917.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>550799516.5599999</v>
+        <v>484611735.47</v>
       </c>
       <c r="P2" t="n">
-        <v>7562468.16</v>
+        <v>7813887.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>202844124.41</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>179135841.16</v>
+      </c>
+      <c r="R2" t="n">
+        <v>51.5039545235</v>
+      </c>
       <c r="S2" t="n">
-        <v>247143610.93</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>205440623.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>35.4360445262</v>
+      </c>
       <c r="U2" t="n">
-        <v>2713684.86</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>3051679.69</v>
+      </c>
+      <c r="V2" t="n">
+        <v>31.3192400061</v>
+      </c>
       <c r="W2" t="n">
-        <v>235709914.77</v>
+        <v>217256873.96</v>
       </c>
       <c r="X2" t="n">
-        <v>60553904.24</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>57228409.38</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23.097634039</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10162124.65</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>55.7251334259</v>
+      </c>
       <c r="AB2" t="n">
-        <v>315089601.79</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>267354861.51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>40.0494440561</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>32.5307579426</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24.3176431543</v>
+      </c>
       <c r="AF2" t="n">
-        <v>206.3139881775</v>
+        <v>191.0748095619</v>
       </c>
       <c r="AG2" t="n">
-        <v>42.7941397338</v>
+        <v>44.8311210931</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/300917.xlsx
+++ b/资产负债表/300917.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>484611735.47</v>
+        <v>550799516.5599999</v>
       </c>
       <c r="P2" t="n">
-        <v>7813887.14</v>
+        <v>7562468.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>179135841.16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>51.5039545235</v>
-      </c>
+        <v>202844124.41</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>205440623.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>35.4360445262</v>
-      </c>
+        <v>247143610.93</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>3051679.69</v>
-      </c>
-      <c r="V2" t="n">
-        <v>31.3192400061</v>
-      </c>
+        <v>2713684.86</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>217256873.96</v>
+        <v>235709914.77</v>
       </c>
       <c r="X2" t="n">
-        <v>57228409.38</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.097634039</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10162124.65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>55.7251334259</v>
-      </c>
+        <v>60553904.24</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>267354861.51</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>40.0494440561</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>32.5307579426</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24.3176431543</v>
-      </c>
+        <v>315089601.79</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>191.0748095619</v>
+        <v>206.3139881775</v>
       </c>
       <c r="AG2" t="n">
-        <v>44.8311210931</v>
+        <v>42.7941397338</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
